--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_22_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_22_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1460315.881841619</v>
+        <v>1456559.49213183</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5915902.834835912</v>
+        <v>5915902.834835911</v>
       </c>
     </row>
     <row r="9">
@@ -1381,13 +1381,13 @@
         <v>416.3855777583095</v>
       </c>
       <c r="F11" t="n">
-        <v>410.537335659906</v>
+        <v>405.9925496649063</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>382.4562447723393</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>253.9729163065504</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>27.01028645237269</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>196.6021193806006</v>
       </c>
       <c r="U11" t="n">
         <v>243.4285649287229</v>
       </c>
       <c r="V11" t="n">
-        <v>345.9393609305334</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>387.7554804080987</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>401.8996191515041</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>57.0335903503473</v>
+        <v>391.1518428283648</v>
       </c>
     </row>
     <row r="12">
@@ -1530,10 +1530,10 @@
         <v>176.8490128968189</v>
       </c>
       <c r="C13" t="n">
-        <v>157.784674766629</v>
+        <v>94.71543188183291</v>
       </c>
       <c r="D13" t="n">
-        <v>151.1677932355142</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>161.888563862883</v>
       </c>
       <c r="G13" t="n">
-        <v>150.0423489486285</v>
+        <v>150.0423489486284</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.9692003794989</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>129.9308534758295</v>
       </c>
       <c r="T13" t="n">
-        <v>130.5054964798382</v>
+        <v>226.7733322206491</v>
       </c>
       <c r="U13" t="n">
         <v>262.5513459967661</v>
@@ -1593,7 +1593,7 @@
         <v>256.2547207345931</v>
       </c>
       <c r="X13" t="n">
-        <v>229.8864174849434</v>
+        <v>229.8864174849433</v>
       </c>
       <c r="Y13" t="n">
         <v>212.0940543440545</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>408.9851551450804</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>420.7096284534326</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>418.4992673423216</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>416.3855777583095</v>
       </c>
       <c r="F14" t="n">
         <v>410.537335659906</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>238.6500251904203</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>27.0102864523727</v>
       </c>
       <c r="T14" t="n">
-        <v>196.6021193806006</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>63.50047744117094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>387.7554804080987</v>
       </c>
       <c r="X14" t="n">
-        <v>401.8996191515041</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>391.1518428283648</v>
       </c>
     </row>
     <row r="15">
@@ -1776,16 +1776,16 @@
         <v>155.0090040767918</v>
       </c>
       <c r="F16" t="n">
-        <v>144.1949964917696</v>
+        <v>161.888563862883</v>
       </c>
       <c r="G16" t="n">
-        <v>150.0423489486285</v>
+        <v>28.69636260685495</v>
       </c>
       <c r="H16" t="n">
-        <v>117.9692003794989</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>49.41291406313614</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>262.5513459967661</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.0345334132955</v>
       </c>
       <c r="W16" t="n">
         <v>256.2547207345931</v>
       </c>
       <c r="X16" t="n">
-        <v>229.8864174849434</v>
+        <v>229.8864174849433</v>
       </c>
       <c r="Y16" t="n">
         <v>212.0940543440545</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>420.7096284534326</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>418.4992673423216</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>394.9154001039068</v>
       </c>
       <c r="F17" t="n">
         <v>410.537335659906</v>
       </c>
       <c r="G17" t="n">
-        <v>382.4562447723393</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>253.9729163065504</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>62.21637651303021</v>
+        <v>243.4285649287229</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>387.7554804080987</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>401.8996191515041</v>
       </c>
       <c r="Y17" t="n">
-        <v>391.1518428283648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H18" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.2149664564642</v>
+        <v>176.8490128968189</v>
       </c>
       <c r="C19" t="n">
         <v>157.784674766629</v>
       </c>
       <c r="D19" t="n">
-        <v>151.1677932355142</v>
+        <v>29.82180689374066</v>
       </c>
       <c r="E19" t="n">
         <v>155.0090040767918</v>
@@ -2016,13 +2016,13 @@
         <v>161.888563862883</v>
       </c>
       <c r="G19" t="n">
-        <v>150.0423489486285</v>
+        <v>150.0423489486284</v>
       </c>
       <c r="H19" t="n">
-        <v>117.9692003794989</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>49.41291406313614</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>256.2547207345931</v>
       </c>
       <c r="X19" t="n">
-        <v>229.8864174849434</v>
+        <v>229.8864174849433</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>212.0940543440545</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.2251245906182</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>420.7096284534326</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>410.537335659906</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>382.4562447723393</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>253.9729163065504</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>196.6021193806006</v>
       </c>
       <c r="U20" t="n">
-        <v>62.21637651303021</v>
+        <v>243.4285649287229</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>387.7554804080987</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>401.8996191515041</v>
@@ -2177,7 +2177,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H21" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>155.0090040767918</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>161.888563862883</v>
       </c>
       <c r="G22" t="n">
-        <v>150.0423489486285</v>
+        <v>110.8595634750799</v>
       </c>
       <c r="H22" t="n">
-        <v>117.9692003794989</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>49.41291406313614</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>129.9308534758295</v>
       </c>
       <c r="T22" t="n">
         <v>226.7733322206491</v>
@@ -2304,10 +2304,10 @@
         <v>256.2547207345931</v>
       </c>
       <c r="X22" t="n">
-        <v>103.0468805634174</v>
+        <v>229.8864174849433</v>
       </c>
       <c r="Y22" t="n">
-        <v>212.0940543440545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>408.9851551450804</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>166.7589143659693</v>
+        <v>420.7096284534326</v>
       </c>
       <c r="D23" t="n">
         <v>418.4992673423216</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>382.4562447723393</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>253.9729163065504</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>27.0102864523727</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>196.6021193806006</v>
       </c>
       <c r="U23" t="n">
         <v>243.4285649287229</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>345.9393609305334</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>387.7554804080987</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>252.3184842456395</v>
       </c>
       <c r="Y23" t="n">
-        <v>391.1518428283648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2490,13 +2490,13 @@
         <v>161.888563862883</v>
       </c>
       <c r="G25" t="n">
-        <v>150.0423489486285</v>
+        <v>150.0423489486284</v>
       </c>
       <c r="H25" t="n">
-        <v>117.9692003794989</v>
+        <v>117.969200379499</v>
       </c>
       <c r="I25" t="n">
-        <v>49.41291406313614</v>
+        <v>49.41291406313613</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>129.9308534758292</v>
+        <v>129.9308534758295</v>
       </c>
       <c r="T25" t="n">
-        <v>226.7733322206491</v>
+        <v>226.7733322206487</v>
       </c>
       <c r="U25" t="n">
-        <v>262.5513459967657</v>
+        <v>262.5513459967667</v>
       </c>
       <c r="V25" t="n">
         <v>271.0345334132955</v>
@@ -2541,7 +2541,7 @@
         <v>256.2547207345931</v>
       </c>
       <c r="X25" t="n">
-        <v>229.8864174849434</v>
+        <v>229.8864174849433</v>
       </c>
       <c r="Y25" t="n">
         <v>212.0940543440545</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>340.5456838383789</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
         <v>256.4799845637012</v>
@@ -2617,13 +2617,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>53.87223049715204</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H27" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>142.9822731108076</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>28.65575921040497</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735101</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>359.8427394274217</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H30" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811437</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1717562171841229</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735101</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -3097,7 +3097,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>370.3246378412645</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H33" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>284.0859530482739</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -3280,7 +3280,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>167.4490654225664</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>216.3320943995126</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H36" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>59.43301941557413</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>70.84358891275407</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>332.7090828319489</v>
       </c>
       <c r="G38" t="n">
-        <v>225.5188173705571</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H39" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>30.39223119676581</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>181.8996817528532</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>124.0400056253074</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735101</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>100.9386117200746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H42" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,16 +3900,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>139.2310046819544</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.0937685836068</v>
@@ -3918,7 +3918,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>43.97954181326578</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3985,13 +3985,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>156.701289099429</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>202.9305789233621</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4149,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>49.34995949258661</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -4200,10 +4200,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>106.0178285439528</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>882.4822216683644</v>
+        <v>1520.749267207647</v>
       </c>
       <c r="C11" t="n">
-        <v>882.4822216683644</v>
+        <v>1520.749267207647</v>
       </c>
       <c r="D11" t="n">
-        <v>882.4822216683644</v>
+        <v>1520.749267207647</v>
       </c>
       <c r="E11" t="n">
-        <v>461.8907289832033</v>
+        <v>1100.157774522486</v>
       </c>
       <c r="F11" t="n">
-        <v>47.20655154895474</v>
+        <v>690.0642900124797</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895474</v>
+        <v>303.7448508485006</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
         <v>512.3249274228019</v>
@@ -5059,7 +5059,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2333.044459819078</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T11" t="n">
-        <v>2333.044459819078</v>
+        <v>2161.739578073392</v>
       </c>
       <c r="U11" t="n">
-        <v>2087.157020497136</v>
+        <v>1915.85213875145</v>
       </c>
       <c r="V11" t="n">
-        <v>1737.723322587506</v>
+        <v>1915.85213875145</v>
       </c>
       <c r="W11" t="n">
-        <v>1346.051120155083</v>
+        <v>1915.85213875145</v>
       </c>
       <c r="X11" t="n">
-        <v>940.0919088909375</v>
+        <v>1915.85213875145</v>
       </c>
       <c r="Y11" t="n">
-        <v>882.4822216683644</v>
+        <v>1520.749267207647</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
         <v>341.0245550495863</v>
@@ -5111,19 +5111,19 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J12" t="n">
         <v>175.3166270668981</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210685</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L12" t="n">
         <v>551.5786779960906</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>674.3614816637576</v>
+        <v>577.1212435417258</v>
       </c>
       <c r="C13" t="n">
-        <v>514.9830223035262</v>
+        <v>481.4490901257329</v>
       </c>
       <c r="D13" t="n">
-        <v>362.2882816615926</v>
+        <v>481.4490901257329</v>
       </c>
       <c r="E13" t="n">
-        <v>362.2882816615926</v>
+        <v>481.4490901257329</v>
       </c>
       <c r="F13" t="n">
-        <v>198.7644797798926</v>
+        <v>317.9252882440329</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895474</v>
+        <v>166.3673600130951</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>744.992999204955</v>
+        <v>862.082053811994</v>
       </c>
       <c r="M13" t="n">
-        <v>1317.603786189002</v>
+        <v>992.6864461505235</v>
       </c>
       <c r="N13" t="n">
-        <v>1887.361501150537</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O13" t="n">
-        <v>2005.127382498298</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5229,22 +5229,22 @@
         <v>2229.084291108515</v>
       </c>
       <c r="T13" t="n">
-        <v>2097.260557290497</v>
+        <v>2000.020319168465</v>
       </c>
       <c r="U13" t="n">
-        <v>1832.057177495783</v>
+        <v>1734.816939373752</v>
       </c>
       <c r="V13" t="n">
-        <v>1558.284921522757</v>
+        <v>1461.044683400726</v>
       </c>
       <c r="W13" t="n">
-        <v>1299.441769265593</v>
+        <v>1202.201531143561</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.233266755549</v>
+        <v>969.9930286335172</v>
       </c>
       <c r="Y13" t="n">
-        <v>852.9968482262009</v>
+        <v>755.7566101041691</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>886.8499496432363</v>
+        <v>1546.269385842851</v>
       </c>
       <c r="C14" t="n">
-        <v>461.8907289832033</v>
+        <v>1546.269385842851</v>
       </c>
       <c r="D14" t="n">
-        <v>461.8907289832033</v>
+        <v>1123.542853173839</v>
       </c>
       <c r="E14" t="n">
-        <v>461.8907289832033</v>
+        <v>702.9513604886783</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895472</v>
+        <v>288.2671830544298</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
         <v>118.4065018001353</v>
@@ -5281,19 +5281,19 @@
         <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L14" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
         <v>2043.069798152528</v>
@@ -5302,28 +5302,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447736</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="T14" t="n">
-        <v>2161.739578073392</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="U14" t="n">
-        <v>2097.597681668169</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="V14" t="n">
-        <v>2097.597681668169</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="W14" t="n">
-        <v>1705.925479235746</v>
+        <v>1941.372257386654</v>
       </c>
       <c r="X14" t="n">
-        <v>1299.9662679716</v>
+        <v>1941.372257386654</v>
       </c>
       <c r="Y14" t="n">
-        <v>1299.9662679716</v>
+        <v>1546.269385842851</v>
       </c>
     </row>
     <row r="15">
@@ -5336,7 +5336,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
         <v>341.0245550495863</v>
@@ -5351,28 +5351,28 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J15" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O15" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P15" t="n">
         <v>1488.088567599445</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>982.1367858539732</v>
+        <v>708.3645298809477</v>
       </c>
       <c r="C16" t="n">
-        <v>822.7583264937418</v>
+        <v>548.9860705207163</v>
       </c>
       <c r="D16" t="n">
-        <v>670.0635858518083</v>
+        <v>396.2913298787828</v>
       </c>
       <c r="E16" t="n">
-        <v>513.4888342590892</v>
+        <v>239.7165782860638</v>
       </c>
       <c r="F16" t="n">
-        <v>367.8373226512412</v>
+        <v>76.19277640436377</v>
       </c>
       <c r="G16" t="n">
-        <v>216.2793944203033</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H16" t="n">
-        <v>97.11858595616295</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K16" t="n">
-        <v>289.4920009833859</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>831.5726843696448</v>
+        <v>481.9462364092379</v>
       </c>
       <c r="M16" t="n">
-        <v>992.686446150523</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N16" t="n">
-        <v>1120.185357954412</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T16" t="n">
-        <v>2131.263605507686</v>
+        <v>2131.263605507687</v>
       </c>
       <c r="U16" t="n">
-        <v>1866.060225712973</v>
+        <v>1866.060225712974</v>
       </c>
       <c r="V16" t="n">
-        <v>1866.060225712973</v>
+        <v>1592.287969739948</v>
       </c>
       <c r="W16" t="n">
-        <v>1607.217073455808</v>
+        <v>1333.444817482783</v>
       </c>
       <c r="X16" t="n">
-        <v>1375.008570945764</v>
+        <v>1101.236314972739</v>
       </c>
       <c r="Y16" t="n">
-        <v>1160.772152416416</v>
+        <v>886.999896443391</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1104.748467446728</v>
+        <v>1708.480926861649</v>
       </c>
       <c r="C17" t="n">
-        <v>1104.748467446728</v>
+        <v>1283.521706201616</v>
       </c>
       <c r="D17" t="n">
-        <v>1104.748467446728</v>
+        <v>860.7951735326042</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.748467446728</v>
+        <v>461.8907289832033</v>
       </c>
       <c r="F17" t="n">
-        <v>690.0642900124797</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G17" t="n">
-        <v>303.7448508485006</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
         <v>2043.069798152528</v>
@@ -5539,28 +5539,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U17" t="n">
-        <v>2297.482752687099</v>
+        <v>2114.440138125794</v>
       </c>
       <c r="V17" t="n">
-        <v>2297.482752687099</v>
+        <v>2114.440138125794</v>
       </c>
       <c r="W17" t="n">
-        <v>1905.810550254677</v>
+        <v>2114.440138125794</v>
       </c>
       <c r="X17" t="n">
-        <v>1499.851338990531</v>
+        <v>1708.480926861649</v>
       </c>
       <c r="Y17" t="n">
-        <v>1104.748467446728</v>
+        <v>1708.480926861649</v>
       </c>
     </row>
     <row r="18">
@@ -5588,22 +5588,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J18" t="n">
-        <v>175.3166270668979</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1000.009076127825</v>
+        <v>708.3645298809477</v>
       </c>
       <c r="C19" t="n">
-        <v>840.6306167675938</v>
+        <v>548.9860705207163</v>
       </c>
       <c r="D19" t="n">
-        <v>687.9358761256602</v>
+        <v>518.8630332543116</v>
       </c>
       <c r="E19" t="n">
-        <v>531.3611245329412</v>
+        <v>362.2882816615926</v>
       </c>
       <c r="F19" t="n">
-        <v>367.8373226512412</v>
+        <v>198.7644797798926</v>
       </c>
       <c r="G19" t="n">
-        <v>216.2793944203033</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H19" t="n">
-        <v>97.11858595616295</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>767.3301446246907</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M19" t="n">
-        <v>897.93453696322</v>
+        <v>910.9641928553087</v>
       </c>
       <c r="N19" t="n">
-        <v>1467.692251924754</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O19" t="n">
-        <v>2005.127382498297</v>
+        <v>2018.157038390386</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T19" t="n">
-        <v>2131.263605507686</v>
+        <v>2131.263605507687</v>
       </c>
       <c r="U19" t="n">
-        <v>1866.060225712973</v>
+        <v>1866.060225712974</v>
       </c>
       <c r="V19" t="n">
-        <v>1592.287969739947</v>
+        <v>1592.287969739948</v>
       </c>
       <c r="W19" t="n">
-        <v>1333.444817482782</v>
+        <v>1333.444817482783</v>
       </c>
       <c r="X19" t="n">
-        <v>1101.236314972738</v>
+        <v>1101.236314972739</v>
       </c>
       <c r="Y19" t="n">
-        <v>1101.236314972738</v>
+        <v>886.999896443391</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1104.748467446728</v>
+        <v>728.7040715085336</v>
       </c>
       <c r="C20" t="n">
-        <v>1104.748467446728</v>
+        <v>303.7448508485006</v>
       </c>
       <c r="D20" t="n">
-        <v>1104.748467446728</v>
+        <v>303.7448508485006</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.748467446728</v>
+        <v>303.7448508485006</v>
       </c>
       <c r="F20" t="n">
-        <v>690.0642900124797</v>
+        <v>303.7448508485006</v>
       </c>
       <c r="G20" t="n">
         <v>303.7448508485006</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J20" t="n">
         <v>276.0532770435809</v>
@@ -5758,7 +5758,7 @@
         <v>512.3249274228018</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
@@ -5767,7 +5767,7 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
         <v>2043.069798152528</v>
@@ -5776,28 +5776,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447736</v>
+        <v>2161.739578073392</v>
       </c>
       <c r="U20" t="n">
-        <v>2297.482752687099</v>
+        <v>1915.85213875145</v>
       </c>
       <c r="V20" t="n">
-        <v>2297.482752687099</v>
+        <v>1915.85213875145</v>
       </c>
       <c r="W20" t="n">
-        <v>1905.810550254677</v>
+        <v>1915.85213875145</v>
       </c>
       <c r="X20" t="n">
-        <v>1499.851338990531</v>
+        <v>1509.892927487304</v>
       </c>
       <c r="Y20" t="n">
-        <v>1104.748467446728</v>
+        <v>1114.790055943502</v>
       </c>
     </row>
     <row r="21">
@@ -5825,22 +5825,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J21" t="n">
-        <v>175.3166270668979</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210689</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960912</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987884</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>836.4852742461251</v>
+        <v>791.3576620710738</v>
       </c>
       <c r="C22" t="n">
-        <v>677.1068148858938</v>
+        <v>631.9792027108425</v>
       </c>
       <c r="D22" t="n">
-        <v>524.4120742439602</v>
+        <v>479.284462068909</v>
       </c>
       <c r="E22" t="n">
-        <v>367.8373226512412</v>
+        <v>322.70971047619</v>
       </c>
       <c r="F22" t="n">
-        <v>367.8373226512412</v>
+        <v>159.1859085944899</v>
       </c>
       <c r="G22" t="n">
-        <v>216.2793944203033</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H22" t="n">
-        <v>97.11858595616295</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>284.6345691139103</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L22" t="n">
-        <v>408.5053707322083</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M22" t="n">
-        <v>992.686446150523</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N22" t="n">
-        <v>1120.185357954412</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O22" t="n">
         <v>1657.620488527956</v>
@@ -5934,28 +5934,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447736</v>
+        <v>2229.084291108515</v>
       </c>
       <c r="T22" t="n">
-        <v>2131.263605507686</v>
+        <v>2000.020319168465</v>
       </c>
       <c r="U22" t="n">
-        <v>1866.060225712973</v>
+        <v>1734.816939373752</v>
       </c>
       <c r="V22" t="n">
-        <v>1592.287969739947</v>
+        <v>1461.044683400726</v>
       </c>
       <c r="W22" t="n">
-        <v>1333.444817482782</v>
+        <v>1202.201531143561</v>
       </c>
       <c r="X22" t="n">
-        <v>1229.357059337916</v>
+        <v>969.9930286335172</v>
       </c>
       <c r="Y22" t="n">
-        <v>1015.120640808568</v>
+        <v>969.9930286335172</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1710.456027141395</v>
+        <v>1324.114161493489</v>
       </c>
       <c r="C23" t="n">
-        <v>1542.012679296981</v>
+        <v>899.1549408334561</v>
       </c>
       <c r="D23" t="n">
-        <v>1119.286146627969</v>
+        <v>476.4284081644444</v>
       </c>
       <c r="E23" t="n">
-        <v>698.6946539428083</v>
+        <v>55.83691547928328</v>
       </c>
       <c r="F23" t="n">
-        <v>698.6946539428083</v>
+        <v>55.83691547928328</v>
       </c>
       <c r="G23" t="n">
-        <v>312.3752147788292</v>
+        <v>55.83691547928328</v>
       </c>
       <c r="H23" t="n">
-        <v>55.83691547928327</v>
+        <v>55.83691547928328</v>
       </c>
       <c r="I23" t="n">
         <v>127.0368657304639</v>
       </c>
       <c r="J23" t="n">
-        <v>342.7375326726641</v>
+        <v>538.4174088069515</v>
       </c>
       <c r="K23" t="n">
-        <v>579.009183051885</v>
+        <v>774.6890591861722</v>
       </c>
       <c r="L23" t="n">
-        <v>872.1250579157855</v>
+        <v>1067.804934050073</v>
       </c>
       <c r="M23" t="n">
-        <v>1563.106886971916</v>
+        <v>1393.95282221886</v>
       </c>
       <c r="N23" t="n">
-        <v>1894.532188948393</v>
+        <v>1725.378124195337</v>
       </c>
       <c r="O23" t="n">
-        <v>2207.487703489686</v>
+        <v>2038.33363873663</v>
       </c>
       <c r="P23" t="n">
-        <v>2474.587994668956</v>
+        <v>2305.433929915899</v>
       </c>
       <c r="Q23" t="n">
-        <v>2675.169189680023</v>
+        <v>2506.015124926967</v>
       </c>
       <c r="R23" t="n">
         <v>2791.845773964164</v>
@@ -6019,22 +6019,22 @@
         <v>2764.562656335504</v>
       </c>
       <c r="T23" t="n">
-        <v>2764.562656335504</v>
+        <v>2565.97465696116</v>
       </c>
       <c r="U23" t="n">
-        <v>2518.675217013561</v>
+        <v>2320.087217639218</v>
       </c>
       <c r="V23" t="n">
-        <v>2518.675217013561</v>
+        <v>1970.653519729588</v>
       </c>
       <c r="W23" t="n">
-        <v>2518.675217013561</v>
+        <v>1578.981317297165</v>
       </c>
       <c r="X23" t="n">
-        <v>2518.675217013561</v>
+        <v>1324.114161493489</v>
       </c>
       <c r="Y23" t="n">
-        <v>2123.572345469759</v>
+        <v>1324.114161493489</v>
       </c>
     </row>
     <row r="24">
@@ -6056,28 +6056,28 @@
         <v>255.5345043068685</v>
       </c>
       <c r="F24" t="n">
-        <v>172.1506659230301</v>
+        <v>172.1506659230302</v>
       </c>
       <c r="G24" t="n">
-        <v>87.77956551268701</v>
+        <v>87.77956551268703</v>
       </c>
       <c r="H24" t="n">
-        <v>55.83691547928327</v>
+        <v>55.83691547928328</v>
       </c>
       <c r="I24" t="n">
-        <v>90.05365165075938</v>
+        <v>90.05365165075969</v>
       </c>
       <c r="J24" t="n">
-        <v>183.9469909972265</v>
+        <v>183.9469909972268</v>
       </c>
       <c r="K24" t="n">
-        <v>344.4256630513967</v>
+        <v>344.425663051397</v>
       </c>
       <c r="L24" t="n">
-        <v>560.209041926419</v>
+        <v>560.2090419264192</v>
       </c>
       <c r="M24" t="n">
-        <v>812.0180672291165</v>
+        <v>812.0180672291167</v>
       </c>
       <c r="N24" t="n">
         <v>1070.491728150437</v>
@@ -6126,46 +6126,46 @@
         <v>1008.639440058154</v>
       </c>
       <c r="C25" t="n">
-        <v>849.2609806979227</v>
+        <v>849.2609806979224</v>
       </c>
       <c r="D25" t="n">
-        <v>696.5662400559892</v>
+        <v>696.5662400559888</v>
       </c>
       <c r="E25" t="n">
-        <v>539.9914884632701</v>
+        <v>539.9914884632698</v>
       </c>
       <c r="F25" t="n">
-        <v>376.4676865815701</v>
+        <v>376.4676865815698</v>
       </c>
       <c r="G25" t="n">
-        <v>224.9097583506319</v>
+        <v>224.9097583506318</v>
       </c>
       <c r="H25" t="n">
         <v>105.7489498864915</v>
       </c>
       <c r="I25" t="n">
-        <v>55.83691547928327</v>
+        <v>55.83691547928328</v>
       </c>
       <c r="J25" t="n">
-        <v>114.7425791814664</v>
+        <v>201.3222643461562</v>
       </c>
       <c r="K25" t="n">
-        <v>486.3011343201601</v>
+        <v>572.88081948485</v>
       </c>
       <c r="L25" t="n">
-        <v>1028.381817706419</v>
+        <v>696.751621103148</v>
       </c>
       <c r="M25" t="n">
-        <v>1424.20464266695</v>
+        <v>1286.83988062259</v>
       </c>
       <c r="N25" t="n">
-        <v>1551.703554470839</v>
+        <v>1856.597595584125</v>
       </c>
       <c r="O25" t="n">
-        <v>2089.138685044383</v>
+        <v>2394.032726157668</v>
       </c>
       <c r="P25" t="n">
-        <v>2537.414635192408</v>
+        <v>2537.414635192409</v>
       </c>
       <c r="Q25" t="n">
         <v>2775.374681287396</v>
@@ -6177,13 +6177,13 @@
         <v>2660.602487624942</v>
       </c>
       <c r="T25" t="n">
-        <v>2431.538515684892</v>
+        <v>2431.538515684893</v>
       </c>
       <c r="U25" t="n">
-        <v>2166.33513589018</v>
+        <v>2166.335135890179</v>
       </c>
       <c r="V25" t="n">
-        <v>1892.562879917154</v>
+        <v>1892.562879917153</v>
       </c>
       <c r="W25" t="n">
         <v>1633.719727659989</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1537.356910018083</v>
+        <v>2065.288588445679</v>
       </c>
       <c r="C26" t="n">
-        <v>1537.356910018083</v>
+        <v>1627.146115629102</v>
       </c>
       <c r="D26" t="n">
-        <v>1101.447125192527</v>
+        <v>1191.236330803547</v>
       </c>
       <c r="E26" t="n">
-        <v>1101.447125192527</v>
+        <v>757.4615859618418</v>
       </c>
       <c r="F26" t="n">
-        <v>673.5796956017352</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="G26" t="n">
         <v>329.5941563710495</v>
@@ -6226,10 +6226,10 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J26" t="n">
-        <v>723.9740178625035</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K26" t="n">
-        <v>960.2456682417244</v>
+        <v>960.2456682417246</v>
       </c>
       <c r="L26" t="n">
         <v>1253.361543105625</v>
@@ -6238,7 +6238,7 @@
         <v>1579.509431274412</v>
       </c>
       <c r="N26" t="n">
-        <v>1910.934733250889</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O26" t="n">
         <v>2223.890247792182</v>
@@ -6253,25 +6253,25 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S26" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T26" t="n">
-        <v>2993.630245747997</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="U26" t="n">
-        <v>2734.559554269511</v>
+        <v>2482.32193295342</v>
       </c>
       <c r="V26" t="n">
-        <v>2371.942604203337</v>
+        <v>2119.704982887247</v>
       </c>
       <c r="W26" t="n">
-        <v>2371.942604203337</v>
+        <v>2065.288588445679</v>
       </c>
       <c r="X26" t="n">
-        <v>2371.942604203337</v>
+        <v>2065.288588445679</v>
       </c>
       <c r="Y26" t="n">
-        <v>1963.656480502991</v>
+        <v>2065.288588445679</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>59.87260491495994</v>
       </c>
       <c r="I27" t="n">
-        <v>94.08934108643605</v>
+        <v>94.08934108643631</v>
       </c>
       <c r="J27" t="n">
-        <v>187.9826804329032</v>
+        <v>187.9826804329034</v>
       </c>
       <c r="K27" t="n">
-        <v>348.4613524870733</v>
+        <v>348.4613524870736</v>
       </c>
       <c r="L27" t="n">
-        <v>564.2447313620955</v>
+        <v>564.2447313620959</v>
       </c>
       <c r="M27" t="n">
-        <v>816.0537566647928</v>
+        <v>816.0537566647932</v>
       </c>
       <c r="N27" t="n">
         <v>1074.527417586113</v>
       </c>
       <c r="O27" t="n">
-        <v>1310.980320400643</v>
+        <v>1310.980320400644</v>
       </c>
       <c r="P27" t="n">
-        <v>1500.754620965449</v>
+        <v>1500.75462096545</v>
       </c>
       <c r="Q27" t="n">
-        <v>1627.613715173683</v>
+        <v>1627.613715173684</v>
       </c>
       <c r="R27" t="n">
         <v>1689.317169599597</v>
@@ -6363,16 +6363,16 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C28" t="n">
-        <v>932.3961830728613</v>
+        <v>932.3961830728614</v>
       </c>
       <c r="D28" t="n">
         <v>766.5181902743841</v>
       </c>
       <c r="E28" t="n">
-        <v>596.7601865251213</v>
+        <v>596.7601865251214</v>
       </c>
       <c r="F28" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868776</v>
       </c>
       <c r="G28" t="n">
         <v>255.311952099396</v>
@@ -6387,22 +6387,22 @@
         <v>118.778268617143</v>
       </c>
       <c r="K28" t="n">
-        <v>490.3368237558367</v>
+        <v>219.75414325177</v>
       </c>
       <c r="L28" t="n">
-        <v>614.2076253741346</v>
+        <v>761.8348266380289</v>
       </c>
       <c r="M28" t="n">
-        <v>1204.295884893577</v>
+        <v>1351.923086157471</v>
       </c>
       <c r="N28" t="n">
-        <v>1774.053599855111</v>
+        <v>1921.680801119006</v>
       </c>
       <c r="O28" t="n">
-        <v>2290.923156828216</v>
+        <v>2459.115931692549</v>
       </c>
       <c r="P28" t="n">
-        <v>2739.199106976242</v>
+        <v>2907.391881840574</v>
       </c>
       <c r="Q28" t="n">
         <v>2977.159153071229</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1658.324014943765</v>
+        <v>1795.567036989589</v>
       </c>
       <c r="C29" t="n">
-        <v>1220.181542127188</v>
+        <v>1357.424564173013</v>
       </c>
       <c r="D29" t="n">
-        <v>1191.236330803547</v>
+        <v>921.5147793474571</v>
       </c>
       <c r="E29" t="n">
-        <v>757.4615859618418</v>
+        <v>487.7400345057522</v>
       </c>
       <c r="F29" t="n">
-        <v>329.5941563710495</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="G29" t="n">
-        <v>329.5941563710495</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="H29" t="n">
         <v>59.87260491495994</v>
@@ -6463,25 +6463,25 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J29" t="n">
-        <v>288.7193304095857</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K29" t="n">
-        <v>524.9909807888065</v>
+        <v>960.2456682417246</v>
       </c>
       <c r="L29" t="n">
-        <v>818.1068556527071</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M29" t="n">
-        <v>1144.254743821494</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N29" t="n">
-        <v>1475.680045797971</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O29" t="n">
-        <v>1788.635560339264</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P29" t="n">
-        <v>2055.735851518533</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q29" t="n">
         <v>2707.7995967108</v>
@@ -6490,25 +6490,25 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S29" t="n">
-        <v>2953.163875962794</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="T29" t="n">
-        <v>2741.392624431906</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="U29" t="n">
-        <v>2482.32193295342</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="V29" t="n">
-        <v>2482.32193295342</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="W29" t="n">
-        <v>2077.466478364454</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="X29" t="n">
-        <v>1658.324014943765</v>
+        <v>2630.152731174844</v>
       </c>
       <c r="Y29" t="n">
-        <v>1658.324014943765</v>
+        <v>2221.866607474497</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>555.237358432396</v>
+        <v>555.2373584323959</v>
       </c>
       <c r="C30" t="n">
-        <v>448.7808972690383</v>
+        <v>448.7808972690382</v>
       </c>
       <c r="D30" t="n">
-        <v>353.6906084155916</v>
+        <v>353.6906084155915</v>
       </c>
       <c r="E30" t="n">
-        <v>259.5701937425453</v>
+        <v>259.5701937425452</v>
       </c>
       <c r="F30" t="n">
-        <v>176.1863553587069</v>
+        <v>176.1863553587068</v>
       </c>
       <c r="G30" t="n">
-        <v>91.8152549483637</v>
+        <v>91.81525494836369</v>
       </c>
       <c r="H30" t="n">
         <v>59.87260491495994</v>
       </c>
       <c r="I30" t="n">
-        <v>94.08934108643604</v>
+        <v>94.08934108643631</v>
       </c>
       <c r="J30" t="n">
-        <v>187.9826804329031</v>
+        <v>187.9826804329034</v>
       </c>
       <c r="K30" t="n">
-        <v>348.4613524870732</v>
+        <v>348.4613524870736</v>
       </c>
       <c r="L30" t="n">
-        <v>564.2447313620954</v>
+        <v>564.2447313620959</v>
       </c>
       <c r="M30" t="n">
-        <v>816.0537566647928</v>
+        <v>816.0537566647932</v>
       </c>
       <c r="N30" t="n">
         <v>1074.527417586113</v>
       </c>
       <c r="O30" t="n">
-        <v>1310.980320400643</v>
+        <v>1310.980320400644</v>
       </c>
       <c r="P30" t="n">
-        <v>1500.754620965449</v>
+        <v>1500.75462096545</v>
       </c>
       <c r="Q30" t="n">
-        <v>1627.613715173683</v>
+        <v>1627.613715173684</v>
       </c>
       <c r="R30" t="n">
         <v>1689.317169599597</v>
@@ -6584,10 +6584,10 @@
         <v>957.8944744940584</v>
       </c>
       <c r="X30" t="n">
-        <v>803.0270387329384</v>
+        <v>803.0270387329383</v>
       </c>
       <c r="Y30" t="n">
-        <v>676.5412595121592</v>
+        <v>676.5412595121591</v>
       </c>
     </row>
     <row r="31">
@@ -6600,43 +6600,43 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C31" t="n">
-        <v>932.3961830728614</v>
+        <v>932.3961830728608</v>
       </c>
       <c r="D31" t="n">
-        <v>766.5181902743841</v>
+        <v>766.5181902743836</v>
       </c>
       <c r="E31" t="n">
-        <v>596.7601865251213</v>
+        <v>596.7601865251208</v>
       </c>
       <c r="F31" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868771</v>
       </c>
       <c r="G31" t="n">
-        <v>255.3119520993959</v>
+        <v>255.3119520993955</v>
       </c>
       <c r="H31" t="n">
-        <v>122.9678914787118</v>
+        <v>122.9678914787119</v>
       </c>
       <c r="I31" t="n">
         <v>59.87260491495994</v>
       </c>
       <c r="J31" t="n">
-        <v>118.778268617143</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K31" t="n">
-        <v>490.3368237558367</v>
+        <v>576.9165089205267</v>
       </c>
       <c r="L31" t="n">
-        <v>1032.417507142096</v>
+        <v>1118.997192306786</v>
       </c>
       <c r="M31" t="n">
-        <v>1622.505766661538</v>
+        <v>1249.601584645315</v>
       </c>
       <c r="N31" t="n">
         <v>1753.488026254673</v>
       </c>
       <c r="O31" t="n">
-        <v>2290.923156828217</v>
+        <v>2290.923156828216</v>
       </c>
       <c r="P31" t="n">
         <v>2739.199106976242</v>
@@ -6648,25 +6648,25 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S31" t="n">
-        <v>2849.203707252232</v>
+        <v>2849.203707252231</v>
       </c>
       <c r="T31" t="n">
         <v>2606.956483155638</v>
       </c>
       <c r="U31" t="n">
-        <v>2328.569851204381</v>
+        <v>2328.56985120438</v>
       </c>
       <c r="V31" t="n">
         <v>2041.614343074811</v>
       </c>
       <c r="W31" t="n">
-        <v>1769.587938661103</v>
+        <v>1769.587938661102</v>
       </c>
       <c r="X31" t="n">
         <v>1524.196183994515</v>
       </c>
       <c r="Y31" t="n">
-        <v>1296.776513308624</v>
+        <v>1296.776513308623</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>931.9633137017103</v>
+        <v>1795.567036989589</v>
       </c>
       <c r="C32" t="n">
-        <v>493.8208408851336</v>
+        <v>1357.424564173013</v>
       </c>
       <c r="D32" t="n">
-        <v>493.8208408851336</v>
+        <v>921.5147793474571</v>
       </c>
       <c r="E32" t="n">
-        <v>60.04609604342875</v>
+        <v>487.7400345057522</v>
       </c>
       <c r="F32" t="n">
         <v>59.87260491495994</v>
@@ -6700,52 +6700,52 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J32" t="n">
-        <v>288.7193304095857</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K32" t="n">
-        <v>524.9909807888065</v>
+        <v>960.2456682417246</v>
       </c>
       <c r="L32" t="n">
-        <v>818.1068556527071</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M32" t="n">
-        <v>1224.549067944189</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N32" t="n">
-        <v>1555.974369920666</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O32" t="n">
-        <v>1868.929884461958</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P32" t="n">
-        <v>2136.030175641227</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q32" t="n">
-        <v>2876.953661463856</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R32" t="n">
         <v>2993.630245747997</v>
       </c>
       <c r="S32" t="n">
-        <v>2953.163875962794</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="T32" t="n">
-        <v>2953.163875962794</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="U32" t="n">
-        <v>2953.163875962794</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="V32" t="n">
-        <v>2590.54692589662</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="W32" t="n">
-        <v>2185.691471307654</v>
+        <v>2588.77479115903</v>
       </c>
       <c r="X32" t="n">
-        <v>1766.549007886965</v>
+        <v>2169.632327738341</v>
       </c>
       <c r="Y32" t="n">
-        <v>1358.262884186618</v>
+        <v>1795.567036989589</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>555.237358432396</v>
+        <v>555.2373584323959</v>
       </c>
       <c r="C33" t="n">
-        <v>448.7808972690383</v>
+        <v>448.7808972690382</v>
       </c>
       <c r="D33" t="n">
-        <v>353.6906084155916</v>
+        <v>353.6906084155915</v>
       </c>
       <c r="E33" t="n">
-        <v>259.5701937425453</v>
+        <v>259.5701937425452</v>
       </c>
       <c r="F33" t="n">
-        <v>176.1863553587069</v>
+        <v>176.1863553587068</v>
       </c>
       <c r="G33" t="n">
-        <v>91.8152549483637</v>
+        <v>91.81525494836369</v>
       </c>
       <c r="H33" t="n">
         <v>59.87260491495994</v>
       </c>
       <c r="I33" t="n">
-        <v>94.08934108643604</v>
+        <v>94.08934108643631</v>
       </c>
       <c r="J33" t="n">
-        <v>187.9826804329031</v>
+        <v>187.9826804329034</v>
       </c>
       <c r="K33" t="n">
-        <v>348.4613524870732</v>
+        <v>348.4613524870736</v>
       </c>
       <c r="L33" t="n">
-        <v>564.2447313620954</v>
+        <v>564.2447313620959</v>
       </c>
       <c r="M33" t="n">
-        <v>816.0537566647928</v>
+        <v>816.0537566647932</v>
       </c>
       <c r="N33" t="n">
         <v>1074.527417586113</v>
       </c>
       <c r="O33" t="n">
-        <v>1310.980320400643</v>
+        <v>1310.980320400644</v>
       </c>
       <c r="P33" t="n">
-        <v>1500.754620965449</v>
+        <v>1500.75462096545</v>
       </c>
       <c r="Q33" t="n">
-        <v>1627.613715173683</v>
+        <v>1627.613715173684</v>
       </c>
       <c r="R33" t="n">
         <v>1689.317169599597</v>
@@ -6821,10 +6821,10 @@
         <v>957.8944744940584</v>
       </c>
       <c r="X33" t="n">
-        <v>803.0270387329384</v>
+        <v>803.0270387329383</v>
       </c>
       <c r="Y33" t="n">
-        <v>676.5412595121592</v>
+        <v>676.5412595121591</v>
       </c>
     </row>
     <row r="34">
@@ -6858,22 +6858,22 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J34" t="n">
-        <v>205.3579537818329</v>
+        <v>139.4866804296565</v>
       </c>
       <c r="K34" t="n">
-        <v>576.9165089205267</v>
+        <v>511.0452355683503</v>
       </c>
       <c r="L34" t="n">
-        <v>1118.997192306786</v>
+        <v>1053.125918954609</v>
       </c>
       <c r="M34" t="n">
-        <v>1709.085451826228</v>
+        <v>1183.730311293139</v>
       </c>
       <c r="N34" t="n">
-        <v>2278.843166787762</v>
+        <v>1753.488026254673</v>
       </c>
       <c r="O34" t="n">
-        <v>2396.609048135524</v>
+        <v>2290.923156828216</v>
       </c>
       <c r="P34" t="n">
         <v>2739.199106976242</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1952.041453747388</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="C35" t="n">
-        <v>1513.898980930812</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="D35" t="n">
-        <v>1077.989196105256</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E35" t="n">
-        <v>644.2144512635514</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F35" t="n">
-        <v>216.3470216727591</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867015</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.588690455488</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.969506973258</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152527</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
-        <v>2243.650993163595</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447735</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447735</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447735</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447735</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V35" t="n">
-        <v>2360.327577447735</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W35" t="n">
-        <v>2360.327577447735</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="X35" t="n">
-        <v>2360.327577447735</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="Y35" t="n">
-        <v>1952.041453747388</v>
+        <v>1308.351417301975</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043081</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J36" t="n">
-        <v>175.3166270668979</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K36" t="n">
-        <v>335.795299121068</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960903</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M36" t="n">
-        <v>803.3877032987875</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O36" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P36" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q36" t="n">
         <v>1614.947661807679</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>758.6107344189447</v>
+        <v>663.4738450083632</v>
       </c>
       <c r="C37" t="n">
-        <v>586.0490229021697</v>
+        <v>490.9121334915882</v>
       </c>
       <c r="D37" t="n">
-        <v>526.0156699571453</v>
+        <v>490.9121334915882</v>
       </c>
       <c r="E37" t="n">
-        <v>356.2576662078826</v>
+        <v>490.9121334915882</v>
       </c>
       <c r="F37" t="n">
-        <v>179.5506121696388</v>
+        <v>314.2050794533444</v>
       </c>
       <c r="G37" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895471</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158276</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545213</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>688.1212571728192</v>
+        <v>588.0160255186817</v>
       </c>
       <c r="M37" t="n">
-        <v>818.7256495113486</v>
+        <v>718.6204178572111</v>
       </c>
       <c r="N37" t="n">
-        <v>1288.378132818744</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O37" t="n">
-        <v>1825.813263392287</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540312</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q37" t="n">
-        <v>2343.856484770968</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447735</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.90103895197</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T37" t="n">
-        <v>1973.653814855377</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>1695.26718290412</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V37" t="n">
-        <v>1695.26718290412</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W37" t="n">
-        <v>1423.240778490411</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X37" t="n">
-        <v>1177.849023823824</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.4293531379319</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>702.870766362532</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="C38" t="n">
-        <v>702.870766362532</v>
+        <v>1922.18510463116</v>
       </c>
       <c r="D38" t="n">
-        <v>702.870766362532</v>
+        <v>1486.275319805604</v>
       </c>
       <c r="E38" t="n">
-        <v>702.870766362532</v>
+        <v>1052.500574963899</v>
       </c>
       <c r="F38" t="n">
-        <v>275.0033367717397</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895471</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867018</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.969506973258</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152527</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q38" t="n">
-        <v>2243.650993163595</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447735</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447735</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T38" t="n">
-        <v>2148.556325916848</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U38" t="n">
-        <v>1889.485634438362</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V38" t="n">
-        <v>1526.868684372188</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W38" t="n">
-        <v>1122.013229783221</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X38" t="n">
-        <v>702.870766362532</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="Y38" t="n">
-        <v>702.870766362532</v>
+        <v>2360.327577447737</v>
       </c>
     </row>
     <row r="39">
@@ -7247,22 +7247,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043081</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J39" t="n">
-        <v>175.3166270668979</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K39" t="n">
-        <v>335.795299121068</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960903</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>803.3877032987875</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.291841223631</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="C40" t="n">
         <v>919.7301297068562</v>
@@ -7329,55 +7329,55 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
         <v>106.1122152511378</v>
       </c>
       <c r="K40" t="n">
-        <v>202.9123158186959</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>326.7831174369938</v>
+        <v>588.0160255186817</v>
       </c>
       <c r="M40" t="n">
-        <v>550.4276429928777</v>
+        <v>718.6204178572111</v>
       </c>
       <c r="N40" t="n">
-        <v>1120.185357954412</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527955</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.89643867598</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q40" t="n">
-        <v>2343.856484770968</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447735</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.90103895197</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855377</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>1695.26718290412</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V40" t="n">
-        <v>1695.26718290412</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W40" t="n">
-        <v>1695.26718290412</v>
+        <v>1423.240778490412</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.53013062851</v>
+        <v>1177.849023823825</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.110459942618</v>
+        <v>950.4293531379328</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1320.76150051161</v>
+        <v>1474.419173756937</v>
       </c>
       <c r="C41" t="n">
-        <v>882.6190276950331</v>
+        <v>1036.276700940361</v>
       </c>
       <c r="D41" t="n">
-        <v>446.7092428694775</v>
+        <v>600.366916114805</v>
       </c>
       <c r="E41" t="n">
-        <v>446.7092428694775</v>
+        <v>600.366916114805</v>
       </c>
       <c r="F41" t="n">
-        <v>446.7092428694775</v>
+        <v>172.4994865240128</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895471</v>
+        <v>172.4994865240128</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867018</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973258</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152527</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
-        <v>2243.650993163595</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447735</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662532</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2108.089956131645</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U41" t="n">
-        <v>1849.019264653159</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V41" t="n">
-        <v>1849.019264653159</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W41" t="n">
-        <v>1849.019264653159</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X41" t="n">
-        <v>1849.019264653159</v>
+        <v>1900.718744241845</v>
       </c>
       <c r="Y41" t="n">
-        <v>1747.061070996518</v>
+        <v>1900.718744241845</v>
       </c>
     </row>
     <row r="42">
@@ -7469,7 +7469,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
         <v>341.0245550495863</v>
@@ -7481,37 +7481,37 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043081</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J42" t="n">
-        <v>175.3166270668979</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K42" t="n">
-        <v>335.795299121068</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960903</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>803.3877032987875</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
-        <v>1614.947661807678</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
         <v>1676.651116233592</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.291841223631</v>
+        <v>713.9024503859703</v>
       </c>
       <c r="C43" t="n">
-        <v>919.7301297068562</v>
+        <v>713.9024503859703</v>
       </c>
       <c r="D43" t="n">
-        <v>753.852136908379</v>
+        <v>548.024457587493</v>
       </c>
       <c r="E43" t="n">
-        <v>584.0941331591162</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F43" t="n">
         <v>407.3870791208724</v>
@@ -7566,55 +7566,55 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158276</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545213</v>
+        <v>393.4422361027644</v>
       </c>
       <c r="L43" t="n">
-        <v>688.1212571728192</v>
+        <v>935.5229194890233</v>
       </c>
       <c r="M43" t="n">
-        <v>818.7256495113486</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N43" t="n">
-        <v>1388.483364472883</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527955</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.89643867598</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q43" t="n">
-        <v>2343.856484770968</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447735</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447735</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T43" t="n">
-        <v>2315.903797838376</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U43" t="n">
-        <v>2315.903797838376</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V43" t="n">
-        <v>2028.948289708806</v>
+        <v>1650.558898871145</v>
       </c>
       <c r="W43" t="n">
-        <v>1756.921885295098</v>
+        <v>1378.532494457437</v>
       </c>
       <c r="X43" t="n">
-        <v>1511.53013062851</v>
+        <v>1133.140739790849</v>
       </c>
       <c r="Y43" t="n">
-        <v>1284.110459942618</v>
+        <v>905.7210691049575</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1320.76150051161</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C44" t="n">
-        <v>882.6190276950331</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D44" t="n">
-        <v>446.7092428694775</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E44" t="n">
-        <v>446.7092428694775</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F44" t="n">
-        <v>446.7092428694775</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.406501800135</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K44" t="n">
-        <v>512.324927422801</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867015</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.588690455488</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.969506973258</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152527</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
-        <v>2243.650993163595</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447735</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447735</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447735</v>
+        <v>2202.043447044273</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447735</v>
+        <v>2202.043447044273</v>
       </c>
       <c r="V44" t="n">
-        <v>2155.347194696864</v>
+        <v>2202.043447044273</v>
       </c>
       <c r="W44" t="n">
-        <v>2155.347194696864</v>
+        <v>2202.043447044273</v>
       </c>
       <c r="X44" t="n">
-        <v>2155.347194696864</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="Y44" t="n">
-        <v>1747.061070996518</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="45">
@@ -7706,49 +7706,49 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E45" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043081</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J45" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>335.795299121068</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960903</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
-        <v>803.3877032987875</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P45" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q45" t="n">
-        <v>1614.947661807678</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R45" t="n">
         <v>1676.651116233592</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1029.196554659879</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C46" t="n">
-        <v>856.6348431431041</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D46" t="n">
-        <v>690.7568503446269</v>
+        <v>443.520053268367</v>
       </c>
       <c r="E46" t="n">
-        <v>520.9988465953642</v>
+        <v>273.7620495191042</v>
       </c>
       <c r="F46" t="n">
-        <v>344.2917925571204</v>
+        <v>97.05499548086041</v>
       </c>
       <c r="G46" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>192.6919004158276</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>564.2504555545213</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>688.1212571728192</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M46" t="n">
-        <v>1272.302332591134</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N46" t="n">
-        <v>1635.885026789086</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.320157362629</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540312</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q46" t="n">
-        <v>2343.856484770968</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447735</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.90103895197</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
-        <v>1973.653814855377</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>1695.26718290412</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1408.31167477455</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W46" t="n">
-        <v>1136.285270360842</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X46" t="n">
-        <v>1029.196554659879</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y46" t="n">
-        <v>1029.196554659879</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
   </sheetData>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>175.7179764032068</v>
       </c>
       <c r="M13" t="n">
-        <v>446.4711057025436</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042869</v>
       </c>
       <c r="M16" t="n">
-        <v>30.81754489126138</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>80.00897722411241</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -9339,10 +9339,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>156.730423204287</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,22 +9558,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>82.54773060122665</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>58.64029464520712</v>
+        <v>256.2967351848912</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>368.5191322094377</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9795,25 +9795,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>267.8974066888904</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>43.0432857141991</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>16.39178053361729</v>
+        <v>16.39178053361684</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -10035,10 +10035,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>4.217953603099716</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645587</v>
@@ -10047,13 +10047,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>403.1350258841851</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>456.0429799810095</v>
+        <v>16.39178053361684</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -10278,10 +10278,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>3.518533120450229</v>
+        <v>380.1894240459278</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>81.10537790171179</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>545.8002937490523</v>
+        <v>16.39178053361684</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>20.91758768940754</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10515,16 +10515,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>244.2636390535699</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821538</v>
@@ -10743,19 +10743,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>263.871624324937</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>345.6096681853596</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
@@ -10986,10 +10986,10 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>263.871624324937</v>
       </c>
       <c r="M40" t="n">
-        <v>93.97993254278242</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -11001,7 +11001,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,13 +11217,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>192.4544649334023</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -11232,13 +11232,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>152.9002451588995</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371566</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>238.4684670647096</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>192.4544649334025</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>4.5447859949997</v>
       </c>
       <c r="G11" t="n">
-        <v>382.4562447723393</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>253.9729163065504</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>27.0102864523727</v>
       </c>
       <c r="T11" t="n">
-        <v>196.6021193806006</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>345.9393609305334</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>387.7554804080987</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>401.8996191515041</v>
       </c>
       <c r="Y11" t="n">
-        <v>334.1182524780175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>63.06924288479608</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>151.1677932355142</v>
       </c>
       <c r="E13" t="n">
         <v>155.0090040767918</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.9692003794989</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>49.41291406313613</v>
+        <v>49.41291406313614</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>96.26783574081097</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>408.9851551450804</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>420.7096284534326</v>
       </c>
       <c r="D14" t="n">
-        <v>418.4992673423216</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>416.3855777583095</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>382.4562447723393</v>
+        <v>143.806219581919</v>
       </c>
       <c r="H14" t="n">
         <v>253.9729163065504</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>27.0102864523727</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>196.6021193806006</v>
       </c>
       <c r="U14" t="n">
-        <v>179.9280874875519</v>
+        <v>243.4285649287229</v>
       </c>
       <c r="V14" t="n">
         <v>345.9393609305334</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>401.8996191515041</v>
       </c>
       <c r="Y14" t="n">
-        <v>391.1518428283648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>17.69356737111346</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>121.3459863417735</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.9692003794989</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>49.41291406313614</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.0345334132955</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23734,22 +23734,22 @@
         <v>408.9851551450804</v>
       </c>
       <c r="C17" t="n">
-        <v>420.7096284534326</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>418.4992673423216</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>416.3855777583095</v>
+        <v>21.47017765440262</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>382.4562447723393</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>253.9729163065504</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>196.6021193806006</v>
       </c>
       <c r="U17" t="n">
-        <v>181.2121884156927</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>345.9393609305334</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>387.7554804080987</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>391.1518428283648</v>
       </c>
     </row>
     <row r="18">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>76.63404644035472</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>121.3459863417736</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>117.9692003794989</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>49.41291406313614</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>212.0940543440545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>408.9851551450804</v>
+        <v>26.76003055446216</v>
       </c>
       <c r="C20" t="n">
-        <v>420.7096284534326</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>418.4992673423216</v>
@@ -23980,10 +23980,10 @@
         <v>416.3855777583095</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>410.537335659906</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>382.4562447723393</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24022,16 +24022,16 @@
         <v>27.0102864523727</v>
       </c>
       <c r="T20" t="n">
-        <v>196.6021193806006</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>181.2121884156927</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>345.9393609305334</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>387.7554804080987</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>161.888563862883</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>39.18278547354859</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>117.9692003794989</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>49.41291406313614</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>129.9308534758295</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>126.839536921526</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>212.0940543440545</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>408.9851551450804</v>
       </c>
       <c r="C23" t="n">
-        <v>253.9507140874633</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>410.537335659906</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>382.4562447723393</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>253.9729163065504</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>196.6021193806006</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>345.9393609305334</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>387.7554804080987</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>401.8996191515041</v>
+        <v>149.5811349058646</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>391.1518428283648</v>
       </c>
     </row>
     <row r="24">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>54.96198056893871</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735101</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>346.934669545925</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>402.8949277668949</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>55.10829935906071</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.4169990777002</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
@@ -24976,7 +24976,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>33.87862462207863</v>
       </c>
     </row>
     <row r="33">
@@ -25156,10 +25156,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>228.0585989847512</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735101</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>184.4748056435644</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>104.7861934549184</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>92.25017967085269</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25393,22 +25393,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>90.87967246293539</v>
       </c>
       <c r="G38" t="n">
-        <v>169.9888470367604</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735101</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>159.5082013350314</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>61.03815536706841</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>142.9843303162212</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25693,10 +25693,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>303.2646507432685</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>28.82941902981574</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>195.8452100423617</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735101</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>52.95224991614987</v>
       </c>
       <c r="U44" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>156.0602016421496</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>113.7438090910202</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>136.9200085759688</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>278333.4754021772</v>
+        <v>278333.4754021771</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>278333.475402177</v>
+        <v>278333.4754021771</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>348473.830087674</v>
+        <v>348473.8300876739</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>263420.1402420728</v>
+        <v>263420.1402420729</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>263420.1402420728</v>
+        <v>263420.1402420729</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>263420.1402420726</v>
+        <v>263420.1402420729</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>510300.0170675469</v>
+        <v>510300.0170675468</v>
       </c>
       <c r="C2" t="n">
-        <v>510300.0170675469</v>
+        <v>510300.017067547</v>
       </c>
       <c r="D2" t="n">
-        <v>510300.0170675469</v>
+        <v>510300.0170675468</v>
       </c>
       <c r="E2" t="n">
+        <v>325492.2018186602</v>
+      </c>
+      <c r="F2" t="n">
         <v>325492.2018186603</v>
       </c>
-      <c r="F2" t="n">
-        <v>325492.2018186602</v>
-      </c>
       <c r="G2" t="n">
-        <v>325492.2018186602</v>
+        <v>325492.2018186603</v>
       </c>
       <c r="H2" t="n">
         <v>325492.2018186603</v>
@@ -26337,25 +26337,25 @@
         <v>367780.942788487</v>
       </c>
       <c r="J2" t="n">
+        <v>368793.8634663576</v>
+      </c>
+      <c r="K2" t="n">
         <v>368793.8634663578</v>
-      </c>
-      <c r="K2" t="n">
-        <v>368793.8634663579</v>
       </c>
       <c r="L2" t="n">
         <v>368793.8634663578</v>
       </c>
       <c r="M2" t="n">
-        <v>306730.2640365937</v>
+        <v>306730.2640365938</v>
       </c>
       <c r="N2" t="n">
-        <v>306730.2640365937</v>
+        <v>306730.2640365938</v>
       </c>
       <c r="O2" t="n">
-        <v>306730.2640365936</v>
+        <v>306730.2640365938</v>
       </c>
       <c r="P2" t="n">
-        <v>306730.2640365937</v>
+        <v>306730.2640365938</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>28687.43758396123</v>
       </c>
       <c r="J3" t="n">
-        <v>13198.92408385233</v>
+        <v>13198.9240838523</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
         <v>31059.95241910721</v>
       </c>
       <c r="F4" t="n">
-        <v>31059.9524191072</v>
+        <v>31059.95241910721</v>
       </c>
       <c r="G4" t="n">
         <v>31059.95241910722</v>
@@ -26438,28 +26438,28 @@
         <v>31059.95241910722</v>
       </c>
       <c r="I4" t="n">
-        <v>55465.87713621808</v>
+        <v>55465.87713621813</v>
       </c>
       <c r="J4" t="n">
         <v>55895.18041333463</v>
       </c>
       <c r="K4" t="n">
-        <v>55895.18041333468</v>
+        <v>55895.18041333463</v>
       </c>
       <c r="L4" t="n">
-        <v>55895.18041333469</v>
+        <v>55895.18041333462</v>
       </c>
       <c r="M4" t="n">
-        <v>20076.67410129963</v>
+        <v>20076.67410129962</v>
       </c>
       <c r="N4" t="n">
-        <v>20076.67410129964</v>
+        <v>20076.67410129962</v>
       </c>
       <c r="O4" t="n">
-        <v>20076.67410129963</v>
+        <v>20076.67410129962</v>
       </c>
       <c r="P4" t="n">
-        <v>20076.67410129963</v>
+        <v>20076.67410129962</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>47148.30100693081</v>
+        <v>47148.3010069308</v>
       </c>
       <c r="F5" t="n">
         <v>47148.3010069308</v>
       </c>
       <c r="G5" t="n">
-        <v>47148.30100693079</v>
+        <v>47148.3010069308</v>
       </c>
       <c r="H5" t="n">
-        <v>47148.30100693079</v>
+        <v>47148.3010069308</v>
       </c>
       <c r="I5" t="n">
         <v>53707.3775939805</v>
@@ -26502,16 +26502,16 @@
         <v>55677.28176780177</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963779</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963779</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963779</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963779</v>
+        <v>46051.08120963782</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>177941.7007557141</v>
+        <v>177909.7940382123</v>
       </c>
       <c r="C6" t="n">
-        <v>177941.7007557141</v>
+        <v>177909.7940382125</v>
       </c>
       <c r="D6" t="n">
-        <v>177941.7007557141</v>
+        <v>177909.7940382124</v>
       </c>
       <c r="E6" t="n">
-        <v>-314292.388306036</v>
+        <v>-314798.1612164835</v>
       </c>
       <c r="F6" t="n">
-        <v>247283.9483926222</v>
+        <v>246778.1754821748</v>
       </c>
       <c r="G6" t="n">
-        <v>247283.9483926222</v>
+        <v>246778.1754821748</v>
       </c>
       <c r="H6" t="n">
-        <v>247283.9483926223</v>
+        <v>246778.1754821748</v>
       </c>
       <c r="I6" t="n">
-        <v>229920.2504743272</v>
+        <v>229522.9102330332</v>
       </c>
       <c r="J6" t="n">
-        <v>244022.477201369</v>
+        <v>243627.7341925823</v>
       </c>
       <c r="K6" t="n">
-        <v>257221.4012852215</v>
+        <v>256826.6582764348</v>
       </c>
       <c r="L6" t="n">
-        <v>257221.4012852214</v>
+        <v>256826.6582764348</v>
       </c>
       <c r="M6" t="n">
-        <v>133007.1298608594</v>
+        <v>132453.2494176375</v>
       </c>
       <c r="N6" t="n">
-        <v>240602.5087256563</v>
+        <v>240048.6282824344</v>
       </c>
       <c r="O6" t="n">
-        <v>240602.5087256561</v>
+        <v>240048.6282824345</v>
       </c>
       <c r="P6" t="n">
-        <v>240602.5087256563</v>
+        <v>240048.6282824344</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="F2" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="G2" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="H2" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="I2" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26752,34 +26752,34 @@
         <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932209</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932209</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932209</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932209</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932209</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932209</v>
+        <v>466.7019280932211</v>
       </c>
     </row>
     <row r="4">
@@ -26798,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
-        <v>697.9614434910409</v>
+        <v>697.961443491041</v>
       </c>
       <c r="J4" t="n">
         <v>748.4075614369992</v>
@@ -26822,16 +26822,16 @@
         <v>748.4075614369992</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619338</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619338</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619338</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619338</v>
+        <v>590.0818943619342</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>107.8795491291069</v>
       </c>
       <c r="J4" t="n">
-        <v>50.44611794595835</v>
+        <v>50.44611794595824</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>431.7562272868688</v>
+        <v>431.756227286869</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="C11" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="D11" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="E11" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="F11" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="G11" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="H11" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="T11" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="U11" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="V11" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="W11" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="X11" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
     </row>
     <row r="12">
@@ -28247,28 +28247,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="C13" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="D13" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="E13" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="F13" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="G13" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="H13" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="I13" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28298,25 +28298,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="T13" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="U13" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="V13" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="W13" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="X13" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="C14" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="D14" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="E14" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="F14" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="G14" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="H14" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="T14" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="U14" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="V14" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="W14" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="X14" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
     </row>
     <row r="15">
@@ -28484,28 +28484,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="C16" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="D16" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="E16" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="F16" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="G16" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="H16" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="I16" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28535,25 +28535,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="T16" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="U16" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="V16" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="W16" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="X16" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="C17" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="D17" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="E17" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="F17" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="G17" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="H17" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="T17" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="U17" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="V17" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="W17" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="X17" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
     </row>
     <row r="18">
@@ -28721,28 +28721,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="C19" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="D19" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="E19" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="F19" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="G19" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="H19" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="I19" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28772,25 +28772,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="T19" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="U19" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="V19" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="W19" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="X19" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="C20" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="D20" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="E20" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="F20" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="G20" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="H20" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="T20" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="U20" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="V20" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="W20" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="X20" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="Y20" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
     </row>
     <row r="21">
@@ -28958,28 +28958,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="C22" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="D22" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="E22" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="F22" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="G22" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="H22" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="I22" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29009,25 +29009,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="T22" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="U22" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="V22" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="W22" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="X22" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="C23" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="D23" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="E23" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="F23" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="G23" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="H23" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="T23" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="U23" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="V23" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="W23" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="X23" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="Y23" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
     </row>
     <row r="24">
@@ -29195,28 +29195,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="C25" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="D25" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="E25" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="F25" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="G25" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="H25" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="I25" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29246,25 +29246,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="T25" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="U25" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="V25" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="W25" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="X25" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.0514196349783</v>
+        <v>13.05141963497831</v>
       </c>
     </row>
     <row r="26">
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H11" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
@@ -31773,7 +31773,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O11" t="n">
         <v>316.116681354841</v>
@@ -31782,19 +31782,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T11" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,25 +31837,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917232</v>
@@ -31864,7 +31864,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
@@ -31873,7 +31873,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K13" t="n">
         <v>97.77787936116989</v>
@@ -31931,16 +31931,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R13" t="n">
         <v>37.84111043195198</v>
@@ -31952,7 +31952,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32235,7 +32235,7 @@
         <v>72.33176314699058</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062837</v>
@@ -32253,7 +32253,7 @@
         <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
         <v>202.607267687947</v>
@@ -32262,10 +32262,10 @@
         <v>117.8551356405459</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.150095092452091</v>
@@ -32308,19 +32308,19 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108054</v>
@@ -32335,7 +32335,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
         <v>62.32672164233622</v>
@@ -32344,7 +32344,7 @@
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356904</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247772</v>
@@ -32414,19 +32414,19 @@
         <v>101.7869254320034</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,7 +32472,7 @@
         <v>72.33176314699058</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062837</v>
@@ -32490,7 +32490,7 @@
         <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
         <v>202.607267687947</v>
@@ -32499,10 +32499,10 @@
         <v>117.8551356405459</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
         <v>0.150095092452091</v>
@@ -32545,19 +32545,19 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108054</v>
@@ -32572,7 +32572,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
         <v>62.32672164233622</v>
@@ -32581,7 +32581,7 @@
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
         <v>0.06604272567356904</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
         <v>131.9236286247772</v>
@@ -32651,19 +32651,19 @@
         <v>101.7869254320034</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32946,7 +32946,7 @@
         <v>72.33176314699058</v>
       </c>
       <c r="J26" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062837</v>
@@ -32964,7 +32964,7 @@
         <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
         <v>202.607267687947</v>
@@ -32973,10 +32973,10 @@
         <v>117.8551356405459</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
         <v>0.150095092452091</v>
@@ -33019,19 +33019,19 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108054</v>
@@ -33046,7 +33046,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
         <v>62.32672164233622</v>
@@ -33055,7 +33055,7 @@
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356904</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I28" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
         <v>131.9236286247772</v>
@@ -33125,19 +33125,19 @@
         <v>101.7869254320034</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R28" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,43 +33177,43 @@
         <v>1.876188655651138</v>
       </c>
       <c r="H29" t="n">
-        <v>19.21451706968722</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699057</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J29" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766672</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994719</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548409</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879469</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R29" t="n">
         <v>117.8551356405459</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T29" t="n">
-        <v>8.21301584011286</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
         <v>0.150095092452091</v>
@@ -33256,46 +33256,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.69507212887993</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562334</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108054</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917231</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.3267216423362</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
-        <v>18.64606288183763</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600659</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356902</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238408</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051972</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I31" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624555</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116985</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247771</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
-        <v>118.9554357048098</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
         <v>101.7869254320034</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207635</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R31" t="n">
-        <v>37.84111043195196</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130046</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,43 +33414,43 @@
         <v>1.876188655651138</v>
       </c>
       <c r="H32" t="n">
-        <v>19.21451706968722</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699057</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766672</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994719</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548409</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879469</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R32" t="n">
         <v>117.8551356405459</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T32" t="n">
-        <v>8.21301584011286</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
         <v>0.150095092452091</v>
@@ -33493,46 +33493,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.69507212887993</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562334</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K33" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108054</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917231</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.3267216423362</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
-        <v>18.64606288183763</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600659</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356902</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238408</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051972</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I34" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624555</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116985</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247771</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
-        <v>118.9554357048098</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
         <v>101.7869254320034</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207635</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R34" t="n">
-        <v>37.84111043195196</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130046</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,43 +33651,43 @@
         <v>1.876188655651138</v>
       </c>
       <c r="H35" t="n">
-        <v>19.21451706968722</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699057</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766672</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994719</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548409</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879469</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R35" t="n">
         <v>117.8551356405459</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T35" t="n">
-        <v>8.21301584011286</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
         <v>0.150095092452091</v>
@@ -33730,46 +33730,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.69507212887993</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562334</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K36" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108054</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917231</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.3267216423362</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
-        <v>18.64606288183763</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600659</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356902</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238408</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051972</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I37" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624555</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116985</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247771</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>118.9554357048098</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
         <v>101.7869254320034</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207635</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R37" t="n">
-        <v>37.84111043195196</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130046</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,43 +33888,43 @@
         <v>1.876188655651138</v>
       </c>
       <c r="H38" t="n">
-        <v>19.21451706968722</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699057</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J38" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766672</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994719</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548409</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.6072676879469</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R38" t="n">
         <v>117.8551356405459</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T38" t="n">
-        <v>8.21301584011286</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
         <v>0.150095092452091</v>
@@ -33967,46 +33967,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.69507212887993</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562334</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108054</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917231</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.3267216423362</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
-        <v>18.64606288183763</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600659</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356902</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238408</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051972</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I40" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624555</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116985</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247771</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
-        <v>118.9554357048098</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
         <v>101.7869254320034</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207635</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
-        <v>37.84111043195196</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130046</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H41" t="n">
-        <v>19.21451706968722</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699057</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766672</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548409</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879469</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.21301584011286</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U41" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.69507212887993</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562334</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917231</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.3267216423362</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S42" t="n">
-        <v>18.64606288183763</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600659</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356902</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238408</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051972</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624555</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116985</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247771</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9554357048098</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207635</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
-        <v>37.84111043195196</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130046</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H44" t="n">
-        <v>19.21451706968722</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699028</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766672</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548409</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879469</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.21301584011286</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U44" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.69507212887993</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562334</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917231</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.3267216423362</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S45" t="n">
-        <v>18.64606288183763</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600659</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356902</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238408</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051972</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624555</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116985</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247771</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O46" t="n">
-        <v>118.9554357048098</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207635</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195196</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130046</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,13 +35406,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J11" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062842</v>
       </c>
       <c r="L11" t="n">
         <v>296.0766412766673</v>
@@ -35424,10 +35424,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916792</v>
+        <v>34.56235976916796</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415862</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646688</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108055</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624557</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>547.5562458447062</v>
+        <v>300.8399982398713</v>
       </c>
       <c r="M13" t="n">
-        <v>578.3947343273207</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062836</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766678</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916783</v>
+        <v>34.56235976916796</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562336</v>
@@ -35734,16 +35734,16 @@
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
-        <v>547.556245844706</v>
+        <v>281.8524450409515</v>
       </c>
       <c r="M16" t="n">
-        <v>162.7411735160385</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O16" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027014</v>
@@ -35883,31 +35883,31 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062836</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766678</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916796</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
         <v>162.099668741586</v>
@@ -35971,19 +35971,19 @@
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.841315974274</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
         <v>62.32672164233622</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
-        <v>205.130999060777</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N19" t="n">
-        <v>575.5128433954891</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O19" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>258.5173486362905</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125714</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548407</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916796</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415869</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
         <v>62.32672164233622</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K22" t="n">
-        <v>180.3256099623965</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561043</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P22" t="n">
         <v>452.8039900485103</v>
@@ -36302,7 +36302,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J23" t="n">
-        <v>217.8794615577781</v>
+        <v>415.5359020974622</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062837</v>
@@ -36366,7 +36366,7 @@
         <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>697.9614434910409</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36375,13 +36375,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.798273918454</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691681</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
@@ -36451,7 +36451,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624557</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K25" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M25" t="n">
-        <v>399.8210353136676</v>
+        <v>596.048746989336</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485105</v>
+        <v>144.8302111462026</v>
       </c>
       <c r="Q25" t="n">
         <v>240.36368292423</v>
@@ -36594,28 +36594,28 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J26" t="n">
-        <v>598.8903663599626</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>218.9990482215644</v>
+        <v>218.999048221564</v>
       </c>
       <c r="R26" t="n">
         <v>288.7178273103004</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916805</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562336</v>
@@ -36679,13 +36679,13 @@
         <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108053</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742731</v>
@@ -36697,7 +36697,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233691</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624555</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K28" t="n">
-        <v>375.3116718572664</v>
+        <v>101.9958329642696</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M28" t="n">
-        <v>596.0487469893357</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N28" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
-        <v>522.0904615889949</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485105</v>
+        <v>452.8039900485101</v>
       </c>
       <c r="Q28" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R28" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,22 +36828,22 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785917</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J29" t="n">
-        <v>159.2391669125709</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
         <v>316.1166813548409</v>
@@ -36852,7 +36852,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>658.6502476689566</v>
+        <v>218.999048221564</v>
       </c>
       <c r="R29" t="n">
         <v>288.7178273103004</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916805</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562332</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742731</v>
@@ -36931,10 +36931,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233713</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624555</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K31" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M31" t="n">
-        <v>596.0487469893358</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>132.3053127203386</v>
+        <v>508.9762036458162</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>452.8039900485101</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q31" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027012</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785917</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125709</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>410.5476891833148</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
         <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>748.4075614369995</v>
+        <v>218.999048221564</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916805</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562332</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K33" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742731</v>
@@ -37168,10 +37168,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233713</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453262</v>
+        <v>80.4182580956531</v>
       </c>
       <c r="K34" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>547.5562458447059</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M34" t="n">
-        <v>596.0487469893358</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
-        <v>118.95543570481</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>346.0505644855734</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q34" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027012</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,22 +37302,22 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785917</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J35" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766669</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
         <v>316.1166813548409</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916796</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562334</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K36" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.1404992002376</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
         <v>62.32672164233622</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366645</v>
+        <v>388.9936461616016</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N37" t="n">
-        <v>474.396447785248</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
         <v>452.8039900485103</v>
@@ -37487,7 +37487,7 @@
         <v>70.47199114207615</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027012</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785917</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J38" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
         <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916796</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562334</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.841315974274</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
         <v>62.32672164233622</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624555</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116985</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366645</v>
+        <v>388.9936461616016</v>
       </c>
       <c r="M40" t="n">
-        <v>225.9035611675596</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N40" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027012</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,25 +37776,25 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785917</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J41" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
         <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
         <v>269.7982739184536</v>
@@ -37803,7 +37803,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916792</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562334</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646689</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233713</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572664</v>
+        <v>290.2323442945723</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O43" t="n">
-        <v>271.8556808637093</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027012</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,28 +38013,28 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785888</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062841</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916785</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562334</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P45" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233713</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K46" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619338</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>367.255246664598</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O46" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>294.241390365406</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207615</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027012</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
